--- a/monthly_average_salary.xlsx
+++ b/monthly_average_salary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EconometricsProject\Spacial-Econometrics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC9E00-3491-4B21-837A-BFE21725D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDFF412-0D35-4B80-9168-A971C7E67001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,77 +16,14 @@
     <sheet name="Tabl. 14(38)" sheetId="17" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabl. 14(38)'!$B$1:$C$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabl. 14(38)'!$B$1:$B$21</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">Słupsk  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdański  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kartuski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nowodworski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pucki  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wejherowski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bytowski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chojnicki  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">człuchowski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lęborski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">słupski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kościerski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kwidzyński  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">malborski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">starogardzki  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sztumski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tczewski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gdańsk  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gdynia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sopot  </t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Average_Monthly_Gross_Wages_and_Salaries</t>
   </si>
@@ -498,23 +435,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,271 +786,203 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="20.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.73046875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="24.73046875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.4" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="5">
+    <row r="1" spans="1:2" ht="39.4" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A2" s="4">
         <v>2201</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="7">
         <v>4214.6899999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A3" s="4">
         <v>2202</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="6">
         <v>3761.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="5">
+    <row r="4" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A4" s="4">
         <v>2203</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="6">
         <v>3979.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="5">
+    <row r="5" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A5" s="4">
         <v>2204</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="7">
         <v>4438.8599999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A6" s="5">
+    <row r="6" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A6" s="4">
         <v>2205</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="7">
         <v>3957.61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="5">
+    <row r="7" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A7" s="4">
         <v>2206</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="6">
         <v>3720.35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="5">
+    <row r="8" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A8" s="4">
         <v>2207</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="7">
         <v>4362.3599999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A9" s="4">
         <v>2208</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="7">
         <v>4203.78</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="5">
+    <row r="10" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A10" s="4">
         <v>2209</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="7">
         <v>3868.76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="5">
+    <row r="11" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A11" s="4">
         <v>2210</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="7">
         <v>4065.87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A12" s="4">
         <v>2211</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="7">
         <v>4198.7700000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="5">
+    <row r="13" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A13" s="4">
         <v>2212</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="7">
         <v>4149.8599999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="5">
+    <row r="14" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A14" s="4">
         <v>2213</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="7">
         <v>4323.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="5">
+    <row r="15" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A15" s="4">
         <v>2214</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="7">
         <v>4392.16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="5">
+    <row r="16" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A16" s="4">
         <v>2215</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="B16" s="7">
         <v>4046.77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="5">
+    <row r="17" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A17" s="4">
         <v>2216</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="7">
         <v>3982.12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="5">
+    <row r="18" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A18" s="4">
         <v>2261</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" s="7">
         <v>5642</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="5">
+    <row r="19" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A19" s="4">
         <v>2262</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="7">
         <v>5347.46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A20" s="5">
+    <row r="20" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A20" s="4">
         <v>2263</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="7">
         <v>4057.24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="5">
+    <row r="21" spans="1:2" ht="9.9499999999999993" customHeight="1">
+      <c r="A21" s="4">
         <v>2264</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="7">
         <v>5700.74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="21.95" customHeight="1">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="33" spans="1:4" s="3" customFormat="1">
-      <c r="A33" s="4"/>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1">
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
     <sortCondition ref="A1:A36"/>
   </sortState>
   <pageMargins left="1.4763779527559056" right="1.4763779527559056" top="2.0472440944881889" bottom="1.8110236220472442" header="0" footer="0"/>
